--- a/Carpeta de Estudio/E21/Repo2/Patrones de diseño-E21(2).xlsx
+++ b/Carpeta de Estudio/E21/Repo2/Patrones de diseño-E21(2).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ariel\OneDrive\Documentos\Repositorios\E21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E21\Repo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316814A6-9C1D-448E-9474-048FD0E5055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Patrones utilizados</t>
   </si>
@@ -42,9 +43,6 @@
   </si>
   <si>
     <t>Observer</t>
-  </si>
-  <si>
-    <t>Command</t>
   </si>
   <si>
     <t>Factory Method</t>
@@ -74,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,22 +490,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,9 +522,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -538,27 +536,23 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -566,24 +560,24 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
